--- a/Assets/Main/Documents/Timeline.xlsx
+++ b/Assets/Main/Documents/Timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="24975" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -64,13 +64,28 @@
   <si>
     <t>Menus</t>
   </si>
+  <si>
+    <t>Roomba VR</t>
+  </si>
+  <si>
+    <t>Gun VR</t>
+  </si>
+  <si>
+    <t>Boombox VR</t>
+  </si>
+  <si>
+    <t>Toaster</t>
+  </si>
+  <si>
+    <t>Toaster VR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,13 +130,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
@@ -435,7 +449,7 @@
                 <c:formatCode>d/m/yy;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>42748</c:v>
+                  <c:v>42687</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42748</c:v>
@@ -453,13 +467,13 @@
                   <c:v>42748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42748</c:v>
+                  <c:v>42687</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42752</c:v>
+                  <c:v>42769</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42752</c:v>
+                  <c:v>42755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,7 +615,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1611,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,8 +1657,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>42748</v>
+      <c r="B2" s="2">
+        <v>42687</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1657,7 +1671,7 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>42748</v>
       </c>
       <c r="C3">
@@ -1671,7 +1685,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>42755</v>
       </c>
       <c r="C4">
@@ -1685,7 +1699,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>42765</v>
       </c>
       <c r="C5">
@@ -1699,7 +1713,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>42755</v>
       </c>
       <c r="C6">
@@ -1713,7 +1727,7 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>42748</v>
       </c>
       <c r="C7">
@@ -1727,8 +1741,8 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>42748</v>
+      <c r="B8" s="2">
+        <v>42687</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -1741,22 +1755,22 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>42752</v>
+      <c r="B9" s="2">
+        <v>42769</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>42769</v>
+        <v>42783</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>42752</v>
+      <c r="B10" s="2">
+        <v>42755</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1764,6 +1778,92 @@
       <c r="D10" s="2">
         <v>42769</v>
       </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42755</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42769</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42769</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42769</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42769</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
